--- a/ResultsCARNIVAL_VN1203vsNS1_for_24hr/VN1203vsNS1_for_24hr_HostVirus.xlsx
+++ b/ResultsCARNIVAL_VN1203vsNS1_for_24hr/VN1203vsNS1_for_24hr_HostVirus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="231">
   <si>
     <t>activity</t>
   </si>
@@ -23,24 +23,192 @@
     <t>nodetype</t>
   </si>
   <si>
-    <t>CASP7</t>
+    <t>CASP3</t>
   </si>
   <si>
     <t>MEF2B</t>
   </si>
   <si>
+    <t>CDK2</t>
+  </si>
+  <si>
+    <t>MYBL2</t>
+  </si>
+  <si>
+    <t>MTOR</t>
+  </si>
+  <si>
+    <t>PAX6</t>
+  </si>
+  <si>
+    <t>RPS6KA2</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>CDH1</t>
+  </si>
+  <si>
+    <t>HGF</t>
+  </si>
+  <si>
+    <t>SMAD4</t>
+  </si>
+  <si>
+    <t>MEF2A</t>
+  </si>
+  <si>
+    <t>TCF7</t>
+  </si>
+  <si>
+    <t>SMAD3</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>ZEB2</t>
+  </si>
+  <si>
+    <t>IRF1</t>
+  </si>
+  <si>
+    <t>SFPQ</t>
+  </si>
+  <si>
+    <t>NONO</t>
+  </si>
+  <si>
+    <t>GSK3B</t>
+  </si>
+  <si>
+    <t>IL6</t>
+  </si>
+  <si>
+    <t>AVP</t>
+  </si>
+  <si>
+    <t>EP300</t>
+  </si>
+  <si>
+    <t>RB1</t>
+  </si>
+  <si>
+    <t>TAF1</t>
+  </si>
+  <si>
+    <t>TBP</t>
+  </si>
+  <si>
+    <t>HDAC1</t>
+  </si>
+  <si>
+    <t>MAFK</t>
+  </si>
+  <si>
+    <t>YAP1</t>
+  </si>
+  <si>
+    <t>TP73</t>
+  </si>
+  <si>
+    <t>TEAD1</t>
+  </si>
+  <si>
+    <t>PRKCE</t>
+  </si>
+  <si>
+    <t>NR0B2</t>
+  </si>
+  <si>
+    <t>ONECUT1</t>
+  </si>
+  <si>
+    <t>PRKAB1</t>
+  </si>
+  <si>
+    <t>ATF3</t>
+  </si>
+  <si>
+    <t>GABPA</t>
+  </si>
+  <si>
+    <t>CTNNA1</t>
+  </si>
+  <si>
+    <t>SREBF1</t>
+  </si>
+  <si>
+    <t>PAX8</t>
+  </si>
+  <si>
     <t>CASP1</t>
   </si>
   <si>
     <t>SREBF2</t>
   </si>
   <si>
+    <t>IRF3</t>
+  </si>
+  <si>
+    <t>PRKAR1A</t>
+  </si>
+  <si>
+    <t>PRL</t>
+  </si>
+  <si>
+    <t>DDX5</t>
+  </si>
+  <si>
+    <t>YY1</t>
+  </si>
+  <si>
+    <t>ARNT</t>
+  </si>
+  <si>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>HNF1A</t>
+  </si>
+  <si>
+    <t>PPARA</t>
+  </si>
+  <si>
+    <t>AHR</t>
+  </si>
+  <si>
+    <t>ELK1</t>
+  </si>
+  <si>
+    <t>BMP1</t>
+  </si>
+  <si>
+    <t>HSF1</t>
+  </si>
+  <si>
+    <t>HNF4A</t>
+  </si>
+  <si>
+    <t>EGR1</t>
+  </si>
+  <si>
+    <t>HMBOX1</t>
+  </si>
+  <si>
+    <t>BHLHE40</t>
+  </si>
+  <si>
+    <t>CREM</t>
+  </si>
+  <si>
+    <t>WT1</t>
+  </si>
+  <si>
     <t>NS1</t>
   </si>
   <si>
-    <t>IRF3</t>
-  </si>
-  <si>
     <t>DownRegulated</t>
   </si>
   <si>
@@ -122,31 +290,421 @@
     <t>activates</t>
   </si>
   <si>
-    <t>P55210</t>
+    <t>P42574</t>
+  </si>
+  <si>
+    <t>P24941</t>
+  </si>
+  <si>
+    <t>P42345</t>
+  </si>
+  <si>
+    <t>P26367</t>
+  </si>
+  <si>
+    <t>Q15349</t>
+  </si>
+  <si>
+    <t>P12830</t>
+  </si>
+  <si>
+    <t>P14210</t>
+  </si>
+  <si>
+    <t>Q13485</t>
+  </si>
+  <si>
+    <t>P84022</t>
+  </si>
+  <si>
+    <t>O60315</t>
+  </si>
+  <si>
+    <t>P10914</t>
+  </si>
+  <si>
+    <t>P23246</t>
+  </si>
+  <si>
+    <t>P49841</t>
+  </si>
+  <si>
+    <t>P05231</t>
+  </si>
+  <si>
+    <t>P01185</t>
+  </si>
+  <si>
+    <t>Q09472</t>
+  </si>
+  <si>
+    <t>P06400</t>
+  </si>
+  <si>
+    <t>Q13547</t>
+  </si>
+  <si>
+    <t>P46937</t>
+  </si>
+  <si>
+    <t>Q02156</t>
+  </si>
+  <si>
+    <t>Q15466</t>
+  </si>
+  <si>
+    <t>Q9Y478</t>
+  </si>
+  <si>
+    <t>P35221</t>
+  </si>
+  <si>
+    <t>P36956</t>
+  </si>
+  <si>
+    <t>Q06710</t>
   </si>
   <si>
     <t>P29466</t>
   </si>
   <si>
+    <t>Q14653</t>
+  </si>
+  <si>
+    <t>P10644</t>
+  </si>
+  <si>
+    <t>P01236</t>
+  </si>
+  <si>
+    <t>P17844</t>
+  </si>
+  <si>
+    <t>P27540</t>
+  </si>
+  <si>
+    <t>Q07869</t>
+  </si>
+  <si>
+    <t>P19419</t>
+  </si>
+  <si>
+    <t>P13497</t>
+  </si>
+  <si>
     <t>Q02080</t>
   </si>
   <si>
+    <t>P10244</t>
+  </si>
+  <si>
+    <t>O75444</t>
+  </si>
+  <si>
+    <t>Q06546</t>
+  </si>
+  <si>
+    <t>Q02078</t>
+  </si>
+  <si>
+    <t>P36402</t>
+  </si>
+  <si>
+    <t>P61244</t>
+  </si>
+  <si>
+    <t>Q15233</t>
+  </si>
+  <si>
+    <t>P25490</t>
+  </si>
+  <si>
+    <t>P21675</t>
+  </si>
+  <si>
+    <t>P20226</t>
+  </si>
+  <si>
+    <t>Q02447</t>
+  </si>
+  <si>
+    <t>O60675</t>
+  </si>
+  <si>
+    <t>P20823</t>
+  </si>
+  <si>
+    <t>O15350</t>
+  </si>
+  <si>
+    <t>P28347</t>
+  </si>
+  <si>
+    <t>Q9UBC0</t>
+  </si>
+  <si>
+    <t>P41235</t>
+  </si>
+  <si>
+    <t>P18847</t>
+  </si>
+  <si>
+    <t>P19544</t>
+  </si>
+  <si>
     <t>Q12772</t>
   </si>
   <si>
+    <t>Q03060</t>
+  </si>
+  <si>
+    <t>Q00613</t>
+  </si>
+  <si>
+    <t>P35869</t>
+  </si>
+  <si>
+    <t>O14503</t>
+  </si>
+  <si>
+    <t>P18146</t>
+  </si>
+  <si>
+    <t>Q6NT76</t>
+  </si>
+  <si>
+    <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=10</t>
+  </si>
+  <si>
+    <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=191</t>
+  </si>
+  <si>
     <t>CA1</t>
   </si>
   <si>
+    <t>ELM;Wang</t>
+  </si>
+  <si>
+    <t>BioGRID;HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;KEA;MIMP;NetworKIN_KEA;PhosphoPoint;PhosphoSite_KEA;PhosphoSite_MIMP;ProtMapper;RLIMS-P_ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;dbPTM;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>ACSN;BioGRID;HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;IntAct;KEA;MIMP;NetPath;NetworKIN_KEA;PhosphoPoint;PhosphoSite;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;REACH_ProtMapper;RLIMS-P_ProtMapper;SIGNOR;SIGNOR_ProtMapper;SPIKE;Sparser_ProtMapper;Wang;dbPTM;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
     <t>SPIKE</t>
   </si>
   <si>
+    <t>HPRD_MIMP;KEA;MIMP;PhosphoPoint;PhosphoSite_KEA;PhosphoSite_MIMP;SIGNOR;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>HPRD;InnateDB;IntAct;Lit-BM-17;MPPI;SIGNOR;Wang</t>
+  </si>
+  <si>
+    <t>HPRD;SignaLink3</t>
+  </si>
+  <si>
+    <t>BioGRID;HPRD;InnateDB;IntAct;KEGG-MEDICUS;Lit-BM-17;MPPI;NetPath;SIGNOR;SignaLink3;Wang</t>
+  </si>
+  <si>
+    <t>HPRD;Lit-BM-17;SignaLink3;Wang</t>
+  </si>
+  <si>
+    <t>ACSN;HPRD;Lit-BM-17;NetPath;Wang</t>
+  </si>
+  <si>
+    <t>HPRD;SIGNOR</t>
+  </si>
+  <si>
+    <t>ACSN;Wang</t>
+  </si>
+  <si>
+    <t>HPRD;IntAct;Lit-BM-17;SPIKE</t>
+  </si>
+  <si>
+    <t>HPRD_MIMP;MIMP;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>HPRD_MIMP;MIMP;PhosphoSite_MIMP;PhosphoSite_ProtMapper;PhosphoSite_noref;ProtMapper;REACH_ProtMapper;SIGNOR;SIGNOR_ProtMapper;Sparser_ProtMapper;iPTMnet</t>
+  </si>
+  <si>
+    <t>HPRD;InnateDB;Wang</t>
+  </si>
+  <si>
+    <t>HPRD;Wang;iPTMnet</t>
+  </si>
+  <si>
+    <t>IntAct;SPIKE</t>
+  </si>
+  <si>
+    <t>BioGRID;DIP;HPRD;Lit-BM-17;Wang</t>
+  </si>
+  <si>
+    <t>HPRD;SPIKE;Wang</t>
+  </si>
+  <si>
+    <t>DIP;HPRD;Lit-BM-17;Wang</t>
+  </si>
+  <si>
+    <t>HPRD;Wang</t>
+  </si>
+  <si>
+    <t>NetPath;Wang</t>
+  </si>
+  <si>
+    <t>InnateDB;Lit-BM-17;Wang</t>
+  </si>
+  <si>
+    <t>NRF2ome</t>
+  </si>
+  <si>
+    <t>BioGRID;DOMINO;ELM;HPRD;IntAct;LMPID;Lit-BM-17;SIGNOR;SPIKE</t>
+  </si>
+  <si>
+    <t>HPRD;IntAct;SIGNOR</t>
+  </si>
+  <si>
+    <t>SignaLink3</t>
+  </si>
+  <si>
+    <t>SIGNOR;SignaLink3</t>
+  </si>
+  <si>
+    <t>BioGRID;HPRD;Lit-BM-17;SignaLink3</t>
+  </si>
+  <si>
+    <t>ProtMapper;SIGNOR;Sparser_ProtMapper</t>
+  </si>
+  <si>
+    <t>InnateDB;Wang</t>
+  </si>
+  <si>
+    <t>HPRD;InnateDB;KEGG-MEDICUS</t>
+  </si>
+  <si>
+    <t>BioGRID;SIGNOR;SPIKE</t>
+  </si>
+  <si>
+    <t>BioGRID;HPRD;InnateDB;IntAct;KEGG-MEDICUS;Lit-BM-17;Wang</t>
+  </si>
+  <si>
     <t>CA1:11904443</t>
   </si>
   <si>
-    <t>SPIKE:18667412</t>
+    <t>ELM:7629113</t>
+  </si>
+  <si>
+    <t>BioGRID:10095772;BioGRID:9840932;HPRD-phos:10095772;HPRD-phos:10593981;HPRD-phos:20068231;HPRD-phos:9840932;HPRD:10095772;HPRD:10593981;HPRD:9840932;KEA:10095772;KEA:10593981;KEA:11264176;KEA:15302935;KEA:17081983;KEA:17570479;KEA:9840932;ProtMapper:10095772;ProtMapper:10593981;ProtMapper:9840932;SIGNOR:10593981;SIGNOR:9840932;dbPTM:10095772;dbPTM:9840932;iPTMnet:10095772;iPTMnet:10593981;iPTMnet:20068231;iPTMnet:9840932;phosphoELM:9840932</t>
+  </si>
+  <si>
+    <t>ACSN:11420722;ACSN:12006580;ACSN:15279786;ACSN:17303408;ACSN:17660363;ACSN:18590585;ACSN:7575488;ACSN:9315635;BioGRID:15173007;BioGRID:15811853;BioGRID:21697511;HPRD-phos:10207050;HPRD-phos:1756735;HPRD-phos:18669648;HPRD-phos:19413330;HPRD-phos:19651622;HPRD-phos:19664994;HPRD-phos:20058876;HPRD-phos:20068231;HPRD-phos:8626527;HPRD-phos:9139732;HPRD-phos:9315635;HPRD:10207050;HPRD:16326706;HPRD:8626527;HPRD:8756624;HPRD:9139732;HPRD:9315635;IntAct:20871633;IntAct:8756624;KEA:10207050;KEA:16326706;KEA:17570479;KEA:8626527;KEA:9139732;KEA:9315635;NetPath:10542199;PhosphoSite:17380128;PhosphoSite:27507850;ProtMapper:11777937;ProtMapper:17380128;ProtMapper:18692063;ProtMapper:19262748;ProtMapper:19638577;ProtMapper:20871633;ProtMapper:22263797;ProtMapper:23160093;ProtMapper:23437375;ProtMapper:24466208;ProtMapper:26148348;ProtMapper:26581405;ProtMapper:28806746;ProtMapper:9139732;SIGNOR:21902831;SIGNOR:9139732;SPIKE:14627988;SPIKE:20418918;dbPTM:10499802;iPTMnet:10207050;iPTMnet:10499802;iPTMnet:1756735;iPTMnet:18669648;iPTMnet:19413330;iPTMnet:19651622;iPTMnet:19664994;iPTMnet:20058876;iPTMnet:20068231;iPTMnet:8626527;iPTMnet:9139732;iPTMnet:9190208;iPTMnet:9315635</t>
+  </si>
+  <si>
+    <t>SPIKE:15060135</t>
+  </si>
+  <si>
+    <t>SPIKE:12128206</t>
+  </si>
+  <si>
+    <t>KEA:11035810;KEA:12054501;KEA:12147701;KEA:16039586;KEA:16543730;KEA:8524413;SIGNOR:11584304</t>
+  </si>
+  <si>
+    <t>HPRD:11226248;HPRD:7542250;InnateDB:11801604;InnateDB:16219695;InnateDB:9700170;IntAct:22750944;Lit-BM-17:10381631;Lit-BM-17:11960376;Lit-BM-17:16212417;Lit-BM-17:19016843;Lit-BM-17:25468996;Lit-BM-17:7542250;Lit-BM-17:8227214;Lit-BM-17:9233779;MPPI:9326449;SIGNOR:24336504</t>
+  </si>
+  <si>
+    <t>HPRD:11160896;SignaLink3:11160896;SignaLink3:23331499</t>
+  </si>
+  <si>
+    <t>BioGRID:17226765;BioGRID:20142324;BioGRID:22310290;HPRD:10995777;HPRD:15231748;HPRD:15350224;HPRD:9311995;InnateDB:10092624;InnateDB:17591701;InnateDB:18729074;IntAct:15231748;IntAct:15350224;IntAct:18729074;IntAct:19135894;IntAct:21297662;IntAct:21988832;IntAct:22045334;IntAct:22442258;IntAct:25502805;IntAct:25910212;IntAct:27107012;IntAct:29997244;IntAct:31515488;Lit-BM-17:10092624;Lit-BM-17:10531362;Lit-BM-17:10878024;Lit-BM-17:10995777;Lit-BM-17:11114293;Lit-BM-17:11927552;Lit-BM-17:12167862;Lit-BM-17:12419246;Lit-BM-17:12543979;Lit-BM-17:12732634;Lit-BM-17:12794086;Lit-BM-17:12917407;Lit-BM-17:15084259;Lit-BM-17:15231748;Lit-BM-17:15350224;Lit-BM-17:15467747;Lit-BM-17:15588252;Lit-BM-17:15761153;Lit-BM-17:15922743;Lit-BM-17:17283070;Lit-BM-17:17591701;Lit-BM-17:18729074;Lit-BM-17:19135894;Lit-BM-17:19139564;Lit-BM-17:19768112;Lit-BM-17:19917253;Lit-BM-17:20142324;Lit-BM-17:20564330;Lit-BM-17:21532621;Lit-BM-17:21597466;Lit-BM-17:21988832;Lit-BM-17:22045334;Lit-BM-17:22310290;Lit-BM-17:22442258;Lit-BM-17:23788427;Lit-BM-17:24157709;Lit-BM-17:24382352;Lit-BM-17:24584437;Lit-BM-17:25514493;Lit-BM-17:25609649;Lit-BM-17:26555259;Lit-BM-17:28115363;Lit-BM-17:9111321;Lit-BM-17:9311995;Lit-BM-17:9892009;MPPI:9111321;NetPath:10531362;NetPath:10942775;NetPath:12150994;NetPath:16714330;NetPath:17469184;NetPath:18568018;NetPath:18923419;NetPath:9311995;NetPath:9679060;NetPath:9732876;SIGNOR:9843571;SignaLink3:10531362;SignaLink3:10878024;SignaLink3:10995777;SignaLink3:12794086;SignaLink3:12957874;SignaLink3:15231748;SignaLink3:15350224;SignaLink3:18988627;SignaLink3:19135894;SignaLink3:21071413;SignaLink3:21532621;SignaLink3:22045334;SignaLink3:23331499;SignaLink3:9311995</t>
+  </si>
+  <si>
+    <t>HPRD:12551947;Lit-BM-17:12551947;Lit-BM-17:25241761;SignaLink3:12551947;SignaLink3:23331499</t>
+  </si>
+  <si>
+    <t>ACSN:11074002;ACSN:16831886;ACSN:18832382;ACSN:9389648;HPRD:10400677;HPRD:12714599;HPRD:15231748;Lit-BM-17:15231748;Lit-BM-17:16061479;NetPath:10400677</t>
+  </si>
+  <si>
+    <t>HPRD:14623893;SIGNOR:14623893</t>
+  </si>
+  <si>
+    <t>ACSN:11309385;ACSN:12508111;ACSN:14673164;ACSN:15169839;ACSN:17615296;ACSN:19597490;ACSN:19839049;ACSN:20519943;ACSN:20818389;ACSN:21685935;ACSN:225147423;ACSN:22796940</t>
+  </si>
+  <si>
+    <t>HPRD:12403470;IntAct:21988832;IntAct:25959826;IntAct:30021884;Lit-BM-17:11259580;Lit-BM-17:12403470;Lit-BM-17:17452459;Lit-BM-17:17507659;Lit-BM-17:18042045;Lit-BM-17:21988832;SPIKE:10858305;SPIKE:17145710;SPIKE:20421735</t>
+  </si>
+  <si>
+    <t>PhosphoSite:20932480;ProtMapper:20932480;SIGNOR:20932480;iPTMnet:20932480</t>
+  </si>
+  <si>
+    <t>ProtMapper:18604201;ProtMapper:20350291;SIGNOR:18604201;iPTMnet:18604201</t>
+  </si>
+  <si>
+    <t>HPRD:10438822;InnateDB:15509808</t>
+  </si>
+  <si>
+    <t>HPRD:11433299;iPTMnet:16374512</t>
+  </si>
+  <si>
+    <t>IntAct:12527917;SPIKE:20663877</t>
+  </si>
+  <si>
+    <t>BioGRID:9199306;DIP:9199306;HPRD:7758944;Lit-BM-17:11486036;Lit-BM-17:17510411;Lit-BM-17:18542060;Lit-BM-17:7758944;Lit-BM-17:9199306</t>
+  </si>
+  <si>
+    <t>HPRD:10999956;SPIKE:12573436</t>
+  </si>
+  <si>
+    <t>DIP:7724524;HPRD:7724524;HPRD:9242374;HPRD:9858607;Lit-BM-17:11126356;Lit-BM-17:7724524;Lit-BM-17:9242374;Lit-BM-17:9858607</t>
+  </si>
+  <si>
+    <t>HPRD:11094070</t>
+  </si>
+  <si>
+    <t>HPRD:7732011</t>
+  </si>
+  <si>
+    <t>NetPath:10199400</t>
+  </si>
+  <si>
+    <t>InnateDB:19049980;Lit-BM-17:10575014;Lit-BM-17:11306568</t>
+  </si>
+  <si>
+    <t>NRF2ome:18241676</t>
+  </si>
+  <si>
+    <t>BioGRID:27292796;DOMINO:11278685;ELM:11278685;ELM:15678106;HPRD:11278685;HPRD:18280240;IntAct:11278685;LMPID:11278685;Lit-BM-17:11278685;Lit-BM-17:15893728;Lit-BM-17:17110958;Lit-BM-17:18280240;Lit-BM-17:18640976;Lit-BM-17:19111660;Lit-BM-17:25283809;Lit-BM-17:27292796;SIGNOR:21808241;SPIKE:17889669;SPIKE:19788416</t>
+  </si>
+  <si>
+    <t>HPRD:11358867;IntAct:22863277;IntAct:24581491;IntAct:24882516;IntAct:25751140;IntAct:26258633;SIGNOR:23431053</t>
+  </si>
+  <si>
+    <t>SignaLink3:18459945</t>
+  </si>
+  <si>
+    <t>SIGNOR:11369442;SignaLink3:11369442;SignaLink3:23331499</t>
+  </si>
+  <si>
+    <t>BioGRID:11535594;HPRD:15604093;HPRD:16488887;Lit-BM-17:15604093;Lit-BM-17:16455805;Lit-BM-17:20516075;SignaLink3:10594021;SignaLink3:15604093;SignaLink3:20516075;SignaLink3:21071413;SignaLink3:23331499</t>
+  </si>
+  <si>
+    <t>ProtMapper:23949920;SIGNOR:23431053</t>
+  </si>
+  <si>
+    <t>InnateDB:8700869</t>
   </si>
   <si>
     <t>SPIKE:16990137</t>
+  </si>
+  <si>
+    <t>HPRD:9488451;InnateDB:10024886;InnateDB:11314014;InnateDB:11940575;InnateDB:21903422;InnateDB:9463386;InnateDB:9660935</t>
+  </si>
+  <si>
+    <t>BioGRID:20022962;SIGNOR:17369852;SPIKE:15298701</t>
+  </si>
+  <si>
+    <t>BioGRID:18096572;BioGRID:19380484;BioGRID:20006590;BioGRID:22138065;BioGRID:7488247;BioGRID:8065341;BioGRID:8384309;BioGRID:8396713;BioGRID:8619634;BioGRID:8621524;BioGRID:8631989;BioGRID:8816435;HPRD:11768231;HPRD:12024042;HPRD:7488247;HPRD:7628454;HPRD:8384309;InnateDB:17823304;IntAct:9704006;Lit-BM-17:10395741;Lit-BM-17:11259609;Lit-BM-17:18096572;Lit-BM-17:19390533;Lit-BM-17:20006590;Lit-BM-17:22138065;Lit-BM-17:7488247;Lit-BM-17:7628454;Lit-BM-17:8384309;Lit-BM-17:9704006;Lit-BM-17:9887096</t>
   </si>
   <si>
     <t>ppi</t>
@@ -156,7 +714,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +729,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,16 +770,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,7 +1078,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -537,10 +1108,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -548,10 +1119,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -559,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -570,10 +1141,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -581,10 +1152,626 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -602,64 +1789,64 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -670,16 +1857,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -706,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -721,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -729,61 +1916,61 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
       <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>192</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
       <c r="U3" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -794,16 +1981,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -830,22 +2017,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U4" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -853,13 +2040,61 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
         <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>194</v>
+      </c>
+      <c r="R5">
+        <v>71</v>
+      </c>
+      <c r="S5">
+        <v>44</v>
+      </c>
+      <c r="T5">
+        <v>16</v>
+      </c>
+      <c r="U5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -870,13 +2105,4036 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>158</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>195</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>196</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>158</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>158</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>197</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>158</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>158</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>198</v>
+      </c>
+      <c r="R14">
+        <v>16</v>
+      </c>
+      <c r="S14">
+        <v>15</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>158</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>199</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>158</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>200</v>
+      </c>
+      <c r="R18">
+        <v>94</v>
+      </c>
+      <c r="S18">
+        <v>65</v>
+      </c>
+      <c r="T18">
+        <v>11</v>
+      </c>
+      <c r="U18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>201</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>202</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>8</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>203</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>204</v>
+      </c>
+      <c r="R22">
+        <v>12</v>
+      </c>
+      <c r="S22">
+        <v>12</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>158</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>205</v>
+      </c>
+      <c r="R24">
+        <v>13</v>
+      </c>
+      <c r="S24">
+        <v>11</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>206</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="U25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+      <c r="U26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>158</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>158</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
+        <v>158</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>158</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>158</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>208</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>158</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>209</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>210</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P36" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>211</v>
+      </c>
+      <c r="R36">
+        <v>8</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>5</v>
+      </c>
+      <c r="U36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>212</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P38" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>213</v>
+      </c>
+      <c r="R38">
+        <v>8</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="U38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>214</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>215</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>216</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>217</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>3</v>
+      </c>
+      <c r="T42">
+        <v>3</v>
+      </c>
+      <c r="U42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>218</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>158</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>219</v>
+      </c>
+      <c r="R45">
+        <v>19</v>
+      </c>
+      <c r="S45">
+        <v>12</v>
+      </c>
+      <c r="T45">
+        <v>9</v>
+      </c>
+      <c r="U45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>220</v>
+      </c>
+      <c r="R46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>7</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
+        <v>158</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="s">
+        <v>158</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="P49" t="s">
+        <v>158</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>221</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>222</v>
+      </c>
+      <c r="R51">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="U51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>223</v>
+      </c>
+      <c r="R52">
+        <v>11</v>
+      </c>
+      <c r="S52">
+        <v>8</v>
+      </c>
+      <c r="T52">
+        <v>4</v>
+      </c>
+      <c r="U52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="s">
+        <v>158</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="s">
+        <v>158</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="P55" t="s">
+        <v>158</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H56" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="P56" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>224</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>158</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" t="s">
+        <v>144</v>
+      </c>
+      <c r="G58" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="s">
+        <v>158</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>225</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>226</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>227</v>
+      </c>
+      <c r="R61">
+        <v>7</v>
+      </c>
+      <c r="S61">
+        <v>7</v>
+      </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
+        <v>122</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>158</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
+        <v>146</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>61</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>158</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>119</v>
+      </c>
+      <c r="F64" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>158</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>158</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
+        <v>108</v>
+      </c>
+      <c r="G66" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>228</v>
+      </c>
+      <c r="R66">
+        <v>3</v>
+      </c>
+      <c r="S66">
+        <v>3</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" t="s">
+        <v>148</v>
+      </c>
+      <c r="G67" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" t="s">
+        <v>53</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>229</v>
+      </c>
+      <c r="R67">
+        <v>30</v>
+      </c>
+      <c r="S67">
+        <v>21</v>
+      </c>
+      <c r="T67">
+        <v>7</v>
+      </c>
+      <c r="U67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68" t="s">
+        <v>49</v>
+      </c>
+      <c r="H68" t="s">
+        <v>60</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>158</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" t="s">
+        <v>53</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>158</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" t="s">
+        <v>150</v>
+      </c>
+      <c r="G70" t="s">
+        <v>54</v>
+      </c>
+      <c r="H70" t="s">
+        <v>58</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
+        <v>158</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" t="s">
+        <v>59</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>158</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O36" r:id="rId1"/>
+    <hyperlink ref="O38" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>